--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724073.5722566531</v>
+        <v>721527.7671779521</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9961102.301580649</v>
+        <v>9961102.301580651</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11548707.91439852</v>
+        <v>11548707.91439851</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2017710514286897</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>5.85465003787074</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,62 +1212,62 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="D9" t="n">
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,58 +1306,58 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I10" t="n">
+      <c r="T10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
         <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
-        <v>196.9081282713476</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524987</v>
+        <v>67.61083201524984</v>
       </c>
       <c r="T11" t="n">
         <v>162.3410403666942</v>
@@ -1430,13 +1430,13 @@
         <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>177.4818930938019</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>30.93495374438824</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
         <v>124.4488784861022</v>
@@ -1546,7 +1546,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712137</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S13" t="n">
         <v>148.1920955585159</v>
@@ -1591,7 +1591,7 @@
         <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
-        <v>55.43515584994282</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
         <v>177.0077235791688</v>
@@ -1613,13 +1613,13 @@
         <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>286.9481691153458</v>
       </c>
       <c r="F14" t="n">
         <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805274</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>253.0308346143945</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524983</v>
+        <v>67.61083201524984</v>
       </c>
       <c r="T14" t="n">
         <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859759</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
-        <v>171.0893005771808</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
         <v>328.154170905543</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.6881941768773</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
         <v>125.6698913257018</v>
@@ -1771,13 +1771,13 @@
         <v>107.0385432452863</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736431</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
         <v>103.8441182500052</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861022</v>
+        <v>50.52679935684652</v>
       </c>
       <c r="H16" t="n">
         <v>103.1780851413948</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>28.83416085648195</v>
       </c>
       <c r="H17" t="n">
-        <v>238.0489967190033</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1901,13 +1901,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2087,16 +2087,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>275.6633170339919</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>69.11465424812562</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337.6647449244904</v>
+        <v>337.6647449244903</v>
       </c>
       <c r="C26" t="n">
-        <v>320.2037950320174</v>
+        <v>320.2037950320173</v>
       </c>
       <c r="D26" t="n">
-        <v>309.6139448816928</v>
+        <v>309.6139448816927</v>
       </c>
       <c r="E26" t="n">
-        <v>336.8612733332716</v>
+        <v>336.8612733332715</v>
       </c>
       <c r="F26" t="n">
         <v>361.8069490027212</v>
       </c>
       <c r="G26" t="n">
-        <v>365.8526289144633</v>
+        <v>365.8526289144632</v>
       </c>
       <c r="H26" t="n">
-        <v>249.5386676483303</v>
+        <v>249.5386676483302</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.11866504918564</v>
+        <v>64.11866504918562</v>
       </c>
       <c r="T26" t="n">
-        <v>158.84887340063</v>
+        <v>158.8488734006299</v>
       </c>
       <c r="U26" t="n">
         <v>205.9260752199118</v>
@@ -2621,7 +2621,7 @@
         <v>324.6620039394788</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.1688419170634</v>
+        <v>341.1688419170633</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>122.1777243596376</v>
       </c>
       <c r="D28" t="n">
-        <v>58.10486071759804</v>
+        <v>103.5463762792221</v>
       </c>
       <c r="E28" t="n">
-        <v>101.364865907579</v>
+        <v>101.3648659075789</v>
       </c>
       <c r="F28" t="n">
         <v>100.351951283941</v>
@@ -2728,10 +2728,10 @@
         <v>120.956711520038</v>
       </c>
       <c r="H28" t="n">
-        <v>99.68591817533057</v>
+        <v>99.68591817533056</v>
       </c>
       <c r="I28" t="n">
-        <v>51.28332367084791</v>
+        <v>5.841808109223879</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.86305593105713</v>
+        <v>43.86305593105712</v>
       </c>
       <c r="S28" t="n">
         <v>144.6999285924517</v>
@@ -2776,7 +2776,7 @@
         <v>241.4539015976008</v>
       </c>
       <c r="X28" t="n">
-        <v>180.640558650047</v>
+        <v>180.6405586500469</v>
       </c>
       <c r="Y28" t="n">
         <v>173.5155566131046</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>337.6647449244904</v>
+        <v>337.6647449244903</v>
       </c>
       <c r="C29" t="n">
-        <v>320.2037950320174</v>
+        <v>320.2037950320173</v>
       </c>
       <c r="D29" t="n">
-        <v>309.6139448816928</v>
+        <v>309.6139448816927</v>
       </c>
       <c r="E29" t="n">
-        <v>336.8612733332716</v>
+        <v>336.8612733332715</v>
       </c>
       <c r="F29" t="n">
         <v>361.8069490027212</v>
       </c>
       <c r="G29" t="n">
-        <v>365.8526289144633</v>
+        <v>365.8526289144632</v>
       </c>
       <c r="H29" t="n">
-        <v>249.5386676483303</v>
+        <v>249.5386676483302</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.11866504918568</v>
+        <v>64.11866504918562</v>
       </c>
       <c r="T29" t="n">
-        <v>158.84887340063</v>
+        <v>158.8488734006299</v>
       </c>
       <c r="U29" t="n">
         <v>205.9260752199118</v>
       </c>
       <c r="V29" t="n">
-        <v>282.6831617311448</v>
+        <v>282.6831617311447</v>
       </c>
       <c r="W29" t="n">
         <v>304.1718719784228</v>
@@ -2858,7 +2858,7 @@
         <v>324.6620039394788</v>
       </c>
       <c r="Y29" t="n">
-        <v>341.1688419170634</v>
+        <v>341.1688419170633</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.7628834429471</v>
+        <v>134.762883442947</v>
       </c>
       <c r="C31" t="n">
-        <v>122.1777243596377</v>
+        <v>122.1777243596376</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5463762792222</v>
+        <v>103.5463762792221</v>
       </c>
       <c r="E31" t="n">
-        <v>101.364865907579</v>
+        <v>101.3648659075789</v>
       </c>
       <c r="F31" t="n">
-        <v>100.3519512839411</v>
+        <v>100.351951283941</v>
       </c>
       <c r="G31" t="n">
-        <v>75.51519595841243</v>
+        <v>120.956711520038</v>
       </c>
       <c r="H31" t="n">
-        <v>99.68591817533061</v>
+        <v>54.24440261370723</v>
       </c>
       <c r="I31" t="n">
-        <v>51.28332367084794</v>
+        <v>51.28332367084787</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86305593105718</v>
+        <v>43.86305593105709</v>
       </c>
       <c r="S31" t="n">
-        <v>144.6999285924517</v>
+        <v>144.6999285924516</v>
       </c>
       <c r="T31" t="n">
-        <v>174.479852537179</v>
+        <v>174.4798525371789</v>
       </c>
       <c r="U31" t="n">
-        <v>241.1427414666227</v>
+        <v>241.1427414666226</v>
       </c>
       <c r="V31" t="n">
-        <v>207.0685465848378</v>
+        <v>207.0685465848377</v>
       </c>
       <c r="W31" t="n">
-        <v>241.4539015976008</v>
+        <v>241.4539015976007</v>
       </c>
       <c r="X31" t="n">
-        <v>180.640558650047</v>
+        <v>180.6405586500469</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.5155566131046</v>
+        <v>173.5155566131045</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3442,7 +3442,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3952,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,19 +3977,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4805,49 +4805,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O8" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.30037382398848</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.30037382398848</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>27.30037382398848</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>27.30037382398848</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>27.30037382398848</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,16 +4887,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4972,7 +4972,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1933.817446768014</v>
+        <v>1426.613439690468</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.851828588134</v>
+        <v>1099.647821510588</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324146</v>
+        <v>783.3790216643685</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>439.5876678266556</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573571</v>
+        <v>439.5876678266556</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3257.312051896796</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T11" t="n">
         <v>3093.33120304155</v>
       </c>
       <c r="U11" t="n">
-        <v>2881.797625075917</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>2592.731636492877</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.959879983295</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X11" t="n">
-        <v>2281.959879983295</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.817446768014</v>
+        <v>1771.216380994058</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180884</v>
+        <v>667.6378438997377</v>
       </c>
       <c r="C13" t="n">
-        <v>670.6961049507128</v>
+        <v>540.6985597323621</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989083</v>
+        <v>432.5788190805577</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770465</v>
+        <v>401.3313910559231</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396675</v>
+        <v>296.438342318544</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749177</v>
+        <v>170.7324044537943</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>152.7959093543157</v>
@@ -5203,7 +5203,7 @@
         <v>397.9442527783887</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020815</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5221,28 +5221,28 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S13" t="n">
         <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325541</v>
       </c>
       <c r="U13" t="n">
-        <v>1632.185603211715</v>
+        <v>1632.185603211716</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.498013766359</v>
+        <v>1419.49801376636</v>
       </c>
       <c r="W13" t="n">
-        <v>1172.07774248993</v>
+        <v>1172.077742489931</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>986.0850903524449</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.2869551877968</v>
+        <v>807.2894099694461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1725.028786587597</v>
+        <v>1298.008516825458</v>
       </c>
       <c r="C14" t="n">
-        <v>1725.028786587597</v>
+        <v>1298.008516825458</v>
       </c>
       <c r="D14" t="n">
-        <v>1408.759986741378</v>
+        <v>981.7397169792391</v>
       </c>
       <c r="E14" t="n">
-        <v>1064.968632903665</v>
+        <v>691.8930815091928</v>
       </c>
       <c r="F14" t="n">
-        <v>695.9796268745887</v>
+        <v>322.9040754801165</v>
       </c>
       <c r="G14" t="n">
         <v>322.9040754801165</v>
       </c>
       <c r="H14" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="I14" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J14" t="n">
         <v>256.1965048084405</v>
@@ -5288,40 +5288,40 @@
         <v>1574.58199641862</v>
       </c>
       <c r="N14" t="n">
-        <v>2160.818426921755</v>
+        <v>2121.360813477402</v>
       </c>
       <c r="O14" t="n">
-        <v>2663.790897801092</v>
+        <v>2624.333284356739</v>
       </c>
       <c r="P14" t="n">
-        <v>3058.56526415827</v>
+        <v>3019.107650713917</v>
       </c>
       <c r="Q14" t="n">
-        <v>3306.851625913952</v>
+        <v>3306.851625913951</v>
       </c>
       <c r="R14" t="n">
-        <v>3365.868692470754</v>
+        <v>3365.868692470753</v>
       </c>
       <c r="S14" t="n">
-        <v>3297.574922758381</v>
+        <v>3297.57492275838</v>
       </c>
       <c r="T14" t="n">
-        <v>3133.594073903134</v>
+        <v>3133.594073903133</v>
       </c>
       <c r="U14" t="n">
-        <v>2922.060495937501</v>
+        <v>2922.0604959375</v>
       </c>
       <c r="V14" t="n">
-        <v>2749.243020607017</v>
+        <v>2632.994507354461</v>
       </c>
       <c r="W14" t="n">
-        <v>2749.243020607017</v>
+        <v>2322.222750844878</v>
       </c>
       <c r="X14" t="n">
-        <v>2417.774161106468</v>
+        <v>1990.75389134433</v>
       </c>
       <c r="Y14" t="n">
-        <v>2069.631727891187</v>
+        <v>1642.611458129049</v>
       </c>
     </row>
     <row r="15">
@@ -5340,28 +5340,28 @@
         <v>618.9616729559621</v>
       </c>
       <c r="E15" t="n">
-        <v>459.7242179505066</v>
+        <v>459.7242179505065</v>
       </c>
       <c r="F15" t="n">
-        <v>313.1896599773916</v>
+        <v>313.1896599773915</v>
       </c>
       <c r="G15" t="n">
-        <v>176.8265598100097</v>
+        <v>176.8265598100096</v>
       </c>
       <c r="H15" t="n">
-        <v>86.32466544787715</v>
+        <v>86.32466544787712</v>
       </c>
       <c r="I15" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J15" t="n">
-        <v>160.9946433400324</v>
+        <v>160.9946433400323</v>
       </c>
       <c r="K15" t="n">
-        <v>399.2588423203795</v>
+        <v>399.2588423203794</v>
       </c>
       <c r="L15" t="n">
-        <v>765.9570026330448</v>
+        <v>765.9570026330447</v>
       </c>
       <c r="M15" t="n">
         <v>1213.233327855361</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.1118681141966</v>
+        <v>668.4431013169685</v>
       </c>
       <c r="C16" t="n">
-        <v>616.172583946821</v>
+        <v>541.5038171495929</v>
       </c>
       <c r="D16" t="n">
-        <v>508.0528432950165</v>
+        <v>433.3840764977885</v>
       </c>
       <c r="E16" t="n">
-        <v>402.1366484731548</v>
+        <v>327.4678816759267</v>
       </c>
       <c r="F16" t="n">
-        <v>297.2435997357757</v>
+        <v>222.5748329385477</v>
       </c>
       <c r="G16" t="n">
-        <v>171.537661871026</v>
+        <v>171.5376618710259</v>
       </c>
       <c r="H16" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="I16" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J16" t="n">
         <v>153.6011667715474</v>
@@ -5458,28 +5458,28 @@
         <v>2257.389089307298</v>
       </c>
       <c r="R16" t="n">
-        <v>2257.389089307298</v>
+        <v>2209.555530825357</v>
       </c>
       <c r="S16" t="n">
-        <v>2107.700103894656</v>
+        <v>2059.866545412714</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.930387224713</v>
+        <v>1880.096828742772</v>
       </c>
       <c r="U16" t="n">
-        <v>1680.824419110888</v>
+        <v>1632.990860628947</v>
       </c>
       <c r="V16" t="n">
-        <v>1468.136829665532</v>
+        <v>1420.303271183591</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.716558389103</v>
+        <v>1172.882999907162</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.723906251617</v>
+        <v>986.8903477696757</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.9282258686181</v>
+        <v>808.094667386677</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1688.084680246126</v>
+        <v>1680.780597441843</v>
       </c>
       <c r="C17" t="n">
-        <v>1688.084680246126</v>
+        <v>1359.267713449505</v>
       </c>
       <c r="D17" t="n">
-        <v>1377.268614587449</v>
+        <v>1048.451647790828</v>
       </c>
       <c r="E17" t="n">
-        <v>1038.929994937278</v>
+        <v>710.1130281406572</v>
       </c>
       <c r="F17" t="n">
-        <v>675.3937230957431</v>
+        <v>346.5767562991227</v>
       </c>
       <c r="G17" t="n">
-        <v>307.7709058888124</v>
+        <v>317.4513412925746</v>
       </c>
       <c r="H17" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="I17" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J17" t="n">
         <v>256.1965048084405</v>
@@ -5528,37 +5528,37 @@
         <v>2121.360813477402</v>
       </c>
       <c r="O17" t="n">
-        <v>2624.333284356739</v>
+        <v>2663.790897801091</v>
       </c>
       <c r="P17" t="n">
-        <v>3019.107650713917</v>
+        <v>3058.565264158268</v>
       </c>
       <c r="Q17" t="n">
-        <v>3267.394012469599</v>
+        <v>3306.851625913951</v>
       </c>
       <c r="R17" t="n">
-        <v>3365.868692470754</v>
+        <v>3365.868692470753</v>
       </c>
       <c r="S17" t="n">
-        <v>3365.868692470754</v>
+        <v>3303.027656945922</v>
       </c>
       <c r="T17" t="n">
-        <v>3207.34057780305</v>
+        <v>3144.499542278217</v>
       </c>
       <c r="U17" t="n">
-        <v>3001.259734024959</v>
+        <v>2938.418698500127</v>
       </c>
       <c r="V17" t="n">
-        <v>3001.259734024959</v>
+        <v>2654.805444104629</v>
       </c>
       <c r="W17" t="n">
-        <v>2695.940711702919</v>
+        <v>2349.486421782588</v>
       </c>
       <c r="X17" t="n">
-        <v>2369.924586389912</v>
+        <v>2023.470296469582</v>
       </c>
       <c r="Y17" t="n">
-        <v>2027.234887362174</v>
+        <v>1680.780597441843</v>
       </c>
     </row>
     <row r="18">
@@ -5577,28 +5577,28 @@
         <v>618.9616729559621</v>
       </c>
       <c r="E18" t="n">
-        <v>459.7242179505066</v>
+        <v>459.7242179505065</v>
       </c>
       <c r="F18" t="n">
-        <v>313.1896599773916</v>
+        <v>313.1896599773915</v>
       </c>
       <c r="G18" t="n">
-        <v>176.8265598100097</v>
+        <v>176.8265598100096</v>
       </c>
       <c r="H18" t="n">
-        <v>86.32466544787715</v>
+        <v>86.32466544787712</v>
       </c>
       <c r="I18" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J18" t="n">
-        <v>160.9946433400324</v>
+        <v>160.9946433400323</v>
       </c>
       <c r="K18" t="n">
-        <v>399.2588423203795</v>
+        <v>399.2588423203794</v>
       </c>
       <c r="L18" t="n">
-        <v>765.9570026330448</v>
+        <v>765.9570026330447</v>
       </c>
       <c r="M18" t="n">
         <v>1213.233327855361</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>760.271507222526</v>
+        <v>760.2715072225258</v>
       </c>
       <c r="C19" t="n">
-        <v>638.7849572426924</v>
+        <v>638.7849572426921</v>
       </c>
       <c r="D19" t="n">
-        <v>536.11795077843</v>
+        <v>536.1179507784298</v>
       </c>
       <c r="E19" t="n">
-        <v>435.6544901441102</v>
+        <v>435.65449014411</v>
       </c>
       <c r="F19" t="n">
-        <v>336.2141755942731</v>
+        <v>336.214175594273</v>
       </c>
       <c r="G19" t="n">
-        <v>215.9609719170654</v>
+        <v>215.9609719170653</v>
       </c>
       <c r="H19" t="n">
-        <v>117.1934180829965</v>
+        <v>117.1934180829964</v>
       </c>
       <c r="I19" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J19" t="n">
-        <v>158.9453915487574</v>
+        <v>158.9453915487572</v>
       </c>
       <c r="K19" t="n">
-        <v>409.4379597500404</v>
+        <v>409.4379597500402</v>
       </c>
       <c r="L19" t="n">
-        <v>772.5031434509431</v>
+        <v>772.503143450943</v>
       </c>
       <c r="M19" t="n">
         <v>1163.165574302899</v>
@@ -5701,7 +5701,7 @@
         <v>2113.525812005478</v>
       </c>
       <c r="T19" t="n">
-        <v>1939.208829523077</v>
+        <v>1939.208829523078</v>
       </c>
       <c r="U19" t="n">
         <v>1697.555595596794</v>
@@ -5716,7 +5716,7 @@
         <v>1067.813285300149</v>
       </c>
       <c r="Y19" t="n">
-        <v>894.4703391046924</v>
+        <v>894.4703391046921</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2019.277999642226</v>
+        <v>1341.630390325795</v>
       </c>
       <c r="C20" t="n">
-        <v>1697.765115649888</v>
+        <v>1020.117506333457</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.94904999121</v>
+        <v>709.3014406747794</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.610430341039</v>
+        <v>430.8536456909493</v>
       </c>
       <c r="F20" t="n">
-        <v>685.0741584995051</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="G20" t="n">
-        <v>317.4513412925746</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="H20" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="I20" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J20" t="n">
         <v>256.1965048084405</v>
@@ -5759,43 +5759,43 @@
         <v>1041.050091746695</v>
       </c>
       <c r="M20" t="n">
-        <v>1614.039609862973</v>
+        <v>1614.039609862971</v>
       </c>
       <c r="N20" t="n">
-        <v>2160.818426921755</v>
+        <v>2160.818426921754</v>
       </c>
       <c r="O20" t="n">
-        <v>2663.790897801092</v>
+        <v>2663.790897801091</v>
       </c>
       <c r="P20" t="n">
-        <v>3058.56526415827</v>
+        <v>3058.565264158268</v>
       </c>
       <c r="Q20" t="n">
-        <v>3306.851625913952</v>
+        <v>3306.851625913951</v>
       </c>
       <c r="R20" t="n">
-        <v>3365.868692470754</v>
+        <v>3365.868692470753</v>
       </c>
       <c r="S20" t="n">
-        <v>3303.027656945923</v>
+        <v>3303.027656945922</v>
       </c>
       <c r="T20" t="n">
-        <v>3303.027656945923</v>
+        <v>3144.499542278217</v>
       </c>
       <c r="U20" t="n">
-        <v>3096.946813167833</v>
+        <v>2938.418698500127</v>
       </c>
       <c r="V20" t="n">
-        <v>3096.946813167833</v>
+        <v>2654.805444104629</v>
       </c>
       <c r="W20" t="n">
-        <v>3027.134031099019</v>
+        <v>2349.486421782588</v>
       </c>
       <c r="X20" t="n">
-        <v>2701.117905786013</v>
+        <v>2023.470296469582</v>
       </c>
       <c r="Y20" t="n">
-        <v>2358.428206758274</v>
+        <v>1680.780597441843</v>
       </c>
     </row>
     <row r="21">
@@ -5814,22 +5814,22 @@
         <v>618.9616729559621</v>
       </c>
       <c r="E21" t="n">
-        <v>459.7242179505066</v>
+        <v>459.7242179505065</v>
       </c>
       <c r="F21" t="n">
-        <v>313.1896599773916</v>
+        <v>313.1896599773915</v>
       </c>
       <c r="G21" t="n">
-        <v>176.8265598100097</v>
+        <v>176.8265598100096</v>
       </c>
       <c r="H21" t="n">
-        <v>86.32466544787715</v>
+        <v>86.32466544787712</v>
       </c>
       <c r="I21" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J21" t="n">
-        <v>160.9946433400324</v>
+        <v>160.9946433400323</v>
       </c>
       <c r="K21" t="n">
         <v>399.2588423203798</v>
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.271507222526</v>
+        <v>760.2715072225258</v>
       </c>
       <c r="C22" t="n">
-        <v>638.7849572426924</v>
+        <v>638.7849572426921</v>
       </c>
       <c r="D22" t="n">
-        <v>536.11795077843</v>
+        <v>536.1179507784298</v>
       </c>
       <c r="E22" t="n">
-        <v>435.6544901441102</v>
+        <v>435.65449014411</v>
       </c>
       <c r="F22" t="n">
-        <v>336.2141755942731</v>
+        <v>336.214175594273</v>
       </c>
       <c r="G22" t="n">
-        <v>215.9609719170654</v>
+        <v>215.9609719170653</v>
       </c>
       <c r="H22" t="n">
-        <v>117.1934180829965</v>
+        <v>117.1934180829964</v>
       </c>
       <c r="I22" t="n">
-        <v>67.31737384941509</v>
+        <v>67.31737384941506</v>
       </c>
       <c r="J22" t="n">
-        <v>158.9453915487572</v>
+        <v>158.9453915487564</v>
       </c>
       <c r="K22" t="n">
-        <v>409.4379597500402</v>
+        <v>409.4379597500394</v>
       </c>
       <c r="L22" t="n">
-        <v>772.5031434509428</v>
+        <v>772.5031434509422</v>
       </c>
       <c r="M22" t="n">
-        <v>1163.165574302899</v>
+        <v>1163.165574302898</v>
       </c>
       <c r="N22" t="n">
-        <v>1551.07933626117</v>
+        <v>1551.079336261169</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.91432043399</v>
+        <v>1896.914320433989</v>
       </c>
       <c r="P22" t="n">
-        <v>2176.027206120056</v>
+        <v>2176.027206120055</v>
       </c>
       <c r="Q22" t="n">
-        <v>2300.142887524977</v>
+        <v>2300.142887524976</v>
       </c>
       <c r="R22" t="n">
-        <v>2257.762063230578</v>
+        <v>2257.762063230577</v>
       </c>
       <c r="S22" t="n">
-        <v>2113.525812005478</v>
+        <v>2113.525812005477</v>
       </c>
       <c r="T22" t="n">
         <v>1939.208829523077</v>
@@ -5944,7 +5944,7 @@
         <v>1697.555595596794</v>
       </c>
       <c r="V22" t="n">
-        <v>1490.320740338981</v>
+        <v>1490.32074033898</v>
       </c>
       <c r="W22" t="n">
         <v>1248.353203250093</v>
@@ -5953,7 +5953,7 @@
         <v>1067.813285300149</v>
       </c>
       <c r="Y22" t="n">
-        <v>894.4703391046924</v>
+        <v>894.4703391046921</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689502</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697164</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038487</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388316</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467813</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>291.558370076612</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>625.3777437664585</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1076.411957014867</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M23" t="n">
-        <v>1609.943861686792</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N23" t="n">
-        <v>2156.722678745574</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O23" t="n">
-        <v>3036.687329075029</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521975</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641924</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833289</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805551</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572844</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951521</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
-        <v>229.790514964339</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6163,7 +6163,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194911</v>
       </c>
       <c r="C26" t="n">
         <v>1721.771206394894</v>
@@ -6212,61 +6212,61 @@
         <v>1068.765935470688</v>
       </c>
       <c r="F26" t="n">
-        <v>703.3043708214743</v>
+        <v>703.3043708214741</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7562608068648</v>
+        <v>333.7562608068647</v>
       </c>
       <c r="H26" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602604</v>
       </c>
       <c r="I26" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602604</v>
       </c>
       <c r="J26" t="n">
-        <v>270.5761315150515</v>
+        <v>270.5761315150514</v>
       </c>
       <c r="K26" t="n">
-        <v>604.3955052048979</v>
+        <v>604.3955052048977</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.429718453307</v>
+        <v>1055.429718453306</v>
       </c>
       <c r="M26" t="n">
-        <v>2014.440224103754</v>
+        <v>2033.980021283135</v>
       </c>
       <c r="N26" t="n">
-        <v>2561.219041162537</v>
+        <v>2814.74050657805</v>
       </c>
       <c r="O26" t="n">
-        <v>3064.191512041873</v>
+        <v>3317.712977457387</v>
       </c>
       <c r="P26" t="n">
-        <v>3777.546599488819</v>
+        <v>3712.487343814565</v>
       </c>
       <c r="Q26" t="n">
-        <v>4025.832961244501</v>
+        <v>3960.773705570247</v>
       </c>
       <c r="R26" t="n">
-        <v>4084.850027801304</v>
+        <v>4084.850027801302</v>
       </c>
       <c r="S26" t="n">
-        <v>4020.083699468793</v>
+        <v>4020.083699468792</v>
       </c>
       <c r="T26" t="n">
-        <v>3859.630291993409</v>
+        <v>3859.630291993408</v>
       </c>
       <c r="U26" t="n">
-        <v>3651.62415540764</v>
+        <v>3651.624155407639</v>
       </c>
       <c r="V26" t="n">
-        <v>3366.085608204463</v>
+        <v>3366.085608204462</v>
       </c>
       <c r="W26" t="n">
-        <v>3058.841293074743</v>
+        <v>3058.841293074742</v>
       </c>
       <c r="X26" t="n">
-        <v>2730.899874954057</v>
+        <v>2730.899874954056</v>
       </c>
       <c r="Y26" t="n">
         <v>2386.284883118639</v>
@@ -6300,19 +6300,19 @@
         <v>100.7042921544881</v>
       </c>
       <c r="I27" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602604</v>
       </c>
       <c r="J27" t="n">
         <v>175.3742700466433</v>
       </c>
       <c r="K27" t="n">
-        <v>413.6384690269904</v>
+        <v>413.6384690269907</v>
       </c>
       <c r="L27" t="n">
-        <v>780.3366293396557</v>
+        <v>780.3366293396559</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.612954561971</v>
+        <v>1227.612954561972</v>
       </c>
       <c r="N27" t="n">
         <v>1701.135998116426</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.2276628135738</v>
+        <v>742.2276628135737</v>
       </c>
       <c r="C28" t="n">
-        <v>618.815820026061</v>
+        <v>618.8158200260609</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1240415234367</v>
+        <v>514.2235207541194</v>
       </c>
       <c r="E28" t="n">
-        <v>457.7352880814378</v>
+        <v>411.8347673121204</v>
       </c>
       <c r="F28" t="n">
-        <v>356.3696807239215</v>
+        <v>310.4691599546043</v>
       </c>
       <c r="G28" t="n">
-        <v>234.1911842390347</v>
+        <v>188.2906634697174</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4983375972866</v>
+        <v>87.59781682796935</v>
       </c>
       <c r="I28" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602604</v>
       </c>
       <c r="J28" t="n">
-        <v>171.4380387745619</v>
+        <v>171.4380387745618</v>
       </c>
       <c r="K28" t="n">
-        <v>420.0436274950385</v>
+        <v>420.0436274950384</v>
       </c>
       <c r="L28" t="n">
         <v>781.2218317151348</v>
@@ -6397,7 +6397,7 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O28" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P28" t="n">
         <v>2177.197976461022</v>
@@ -6421,13 +6421,13 @@
         <v>1479.978067160745</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.085237264178</v>
+        <v>1236.085237264179</v>
       </c>
       <c r="X28" t="n">
         <v>1053.620026506555</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3517875034194</v>
+        <v>878.3517875034192</v>
       </c>
     </row>
     <row r="29">
@@ -6452,52 +6452,52 @@
         <v>703.3043708214745</v>
       </c>
       <c r="G29" t="n">
-        <v>333.7562608068648</v>
+        <v>333.7562608068646</v>
       </c>
       <c r="H29" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="I29" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J29" t="n">
-        <v>437.9817805354045</v>
+        <v>270.5761315150514</v>
       </c>
       <c r="K29" t="n">
-        <v>771.8011542252509</v>
+        <v>925.2994636503508</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.83536747366</v>
+        <v>1734.429784847344</v>
       </c>
       <c r="M29" t="n">
-        <v>2201.385670303488</v>
+        <v>2267.961689519268</v>
       </c>
       <c r="N29" t="n">
-        <v>2748.16448736227</v>
+        <v>2814.740506578051</v>
       </c>
       <c r="O29" t="n">
-        <v>3251.136958241607</v>
+        <v>3317.712977457388</v>
       </c>
       <c r="P29" t="n">
-        <v>3645.911324598785</v>
+        <v>3712.487343814566</v>
       </c>
       <c r="Q29" t="n">
-        <v>3960.773705570249</v>
+        <v>3960.773705570248</v>
       </c>
       <c r="R29" t="n">
-        <v>4084.850027801304</v>
+        <v>4084.850027801303</v>
       </c>
       <c r="S29" t="n">
-        <v>4020.083699468793</v>
+        <v>4020.083699468792</v>
       </c>
       <c r="T29" t="n">
         <v>3859.630291993409</v>
       </c>
       <c r="U29" t="n">
-        <v>3651.62415540764</v>
+        <v>3651.624155407639</v>
       </c>
       <c r="V29" t="n">
-        <v>3366.085608204463</v>
+        <v>3366.085608204462</v>
       </c>
       <c r="W29" t="n">
         <v>3058.841293074743</v>
@@ -6537,13 +6537,13 @@
         <v>100.7042921544881</v>
       </c>
       <c r="I30" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J30" t="n">
         <v>175.3742700466433</v>
       </c>
       <c r="K30" t="n">
-        <v>413.6384690269904</v>
+        <v>413.6384690269907</v>
       </c>
       <c r="L30" t="n">
         <v>780.3366293396559</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>742.2276628135726</v>
+        <v>742.2276628135743</v>
       </c>
       <c r="C31" t="n">
-        <v>618.8158200260598</v>
+        <v>618.8158200260616</v>
       </c>
       <c r="D31" t="n">
-        <v>514.2235207541181</v>
+        <v>514.22352075412</v>
       </c>
       <c r="E31" t="n">
-        <v>411.8347673121191</v>
+        <v>411.8347673121211</v>
       </c>
       <c r="F31" t="n">
-        <v>310.4691599546029</v>
+        <v>310.4691599546049</v>
       </c>
       <c r="G31" t="n">
-        <v>234.1911842390348</v>
+        <v>188.2906634697181</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4983375972866</v>
+        <v>133.4983375972865</v>
       </c>
       <c r="I31" t="n">
-        <v>81.69700055602608</v>
+        <v>81.69700055602605</v>
       </c>
       <c r="J31" t="n">
         <v>171.4380387745619</v>
@@ -6625,7 +6625,7 @@
         <v>420.0436274950385</v>
       </c>
       <c r="L31" t="n">
-        <v>781.2218317151348</v>
+        <v>781.221831715135</v>
       </c>
       <c r="M31" t="n">
         <v>1169.997283086284</v>
@@ -6634,7 +6634,7 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O31" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P31" t="n">
         <v>2177.197976461022</v>
@@ -6646,25 +6646,25 @@
         <v>2255.120561283059</v>
       </c>
       <c r="S31" t="n">
-        <v>2108.959017250279</v>
+        <v>2108.95901725028</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.716741960199</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U31" t="n">
-        <v>1689.138215226237</v>
+        <v>1689.138215226238</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.978067160744</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W31" t="n">
-        <v>1236.085237264178</v>
+        <v>1236.085237264179</v>
       </c>
       <c r="X31" t="n">
-        <v>1053.620026506554</v>
+        <v>1053.620026506556</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3517875034181</v>
+        <v>878.3517875034198</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>887.9771891384792</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386888</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6774,22 +6774,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6841,28 +6841,28 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1543.189242259775</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2623.499963990482</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O35" t="n">
-        <v>3126.472434869819</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3976.796456056758</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -7026,7 +7026,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,16 +7093,16 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697162</v>
@@ -7160,61 +7160,61 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910139</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1273.952146712636</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N38" t="n">
-        <v>2456.094314970129</v>
+        <v>2787.236323611207</v>
       </c>
       <c r="O38" t="n">
-        <v>3336.058965299584</v>
+        <v>3290.208794490544</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805549</v>
@@ -7248,13 +7248,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803195</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7342,13 +7342,13 @@
         <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.429937623798</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7491,16 +7491,16 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415475</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7570,10 +7570,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7582,19 +7582,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7603,16 +7603,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>1002.369923216576</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.404136464985</v>
+        <v>1329.933422430381</v>
       </c>
       <c r="M44" t="n">
-        <v>1986.936041136909</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N44" t="n">
-        <v>2533.714858195691</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O44" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803195</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7828,10 +7828,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570351</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>215.4351737175854</v>
+        <v>215.1573536876172</v>
       </c>
       <c r="L8" t="n">
-        <v>228.3375791281916</v>
+        <v>221.4615333864801</v>
       </c>
       <c r="M8" t="n">
-        <v>221.0275219217641</v>
+        <v>214.4292962100207</v>
       </c>
       <c r="N8" t="n">
-        <v>220.114619639466</v>
+        <v>220.1146196394659</v>
       </c>
       <c r="O8" t="n">
-        <v>214.8250994536046</v>
+        <v>221.7011451953159</v>
       </c>
       <c r="P8" t="n">
-        <v>218.1977480464452</v>
+        <v>225.0737937881566</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>122.2553668301604</v>
       </c>
       <c r="K9" t="n">
-        <v>136.8856728038727</v>
+        <v>136.8856728038726</v>
       </c>
       <c r="L9" t="n">
-        <v>134.6217678700473</v>
+        <v>134.8995879000153</v>
       </c>
       <c r="M9" t="n">
-        <v>136.7210888668787</v>
+        <v>136.7210888668786</v>
       </c>
       <c r="N9" t="n">
-        <v>118.727468267123</v>
+        <v>118.7274682671229</v>
       </c>
       <c r="O9" t="n">
-        <v>137.9327214868867</v>
+        <v>131.0566757451752</v>
       </c>
       <c r="P9" t="n">
-        <v>124.7128861868194</v>
+        <v>131.3111118985626</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.790692414712</v>
+        <v>133.7906924147119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,16 +8617,16 @@
         <v>135.7154774601071</v>
       </c>
       <c r="M10" t="n">
-        <v>139.4279669036314</v>
+        <v>139.4279669036313</v>
       </c>
       <c r="N10" t="n">
-        <v>128.3392836320193</v>
+        <v>128.0614636020511</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3074569321395</v>
+        <v>139.5852769621077</v>
       </c>
       <c r="P10" t="n">
-        <v>132.81018983464</v>
+        <v>132.8101898346399</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.85617519631614</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>39.85617519631458</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>39.85617519631467</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.856175196316</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>39.85617519631626</v>
+        <v>39.85617519631489</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.74982042514887</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>240.9710754359437</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>429.7763646247713</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>236.3451194304375</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>361.7132403521059</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.2485042583655</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>117.9051702753184</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.51711806374169</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>231.1066821161381</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.74982042514874</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>221.2853655744106</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>19.40311602546643</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>18.79169145623268</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>233.4533865158203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>277.8321087236478</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>116.1979835764094</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>167.1791157893257</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>73.92207912925493</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>53.40527118399</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>115.0860281200281</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.664038944487</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.56685623213393</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.92207912925571</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.7754906369121</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712134</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>335.1124281783789</v>
       </c>
       <c r="H17" t="n">
-        <v>9.58363104972458</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>59.29191641967729</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>233.1511778506948</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>45.44151556162409</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>45.44151556162387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>45.44151556162562</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.44151556162332</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915051.0233181454</v>
+        <v>915051.0233181455</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919892.7176829574</v>
+        <v>919892.717682957</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>930818.1217427959</v>
+        <v>930818.1217427958</v>
       </c>
     </row>
     <row r="8">
@@ -26317,43 +26317,43 @@
         <v>450601.986294371</v>
       </c>
       <c r="D2" t="n">
-        <v>451208.0214143412</v>
+        <v>451208.0214143413</v>
       </c>
       <c r="E2" t="n">
-        <v>415484.578578654</v>
+        <v>415484.5785786542</v>
       </c>
       <c r="F2" t="n">
-        <v>417194.7583520818</v>
+        <v>417194.7583520817</v>
       </c>
       <c r="G2" t="n">
-        <v>422202.2352128417</v>
+        <v>422202.2352128414</v>
       </c>
       <c r="H2" t="n">
-        <v>422202.2352128416</v>
+        <v>422202.2352128415</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="J2" t="n">
         <v>450973.1454199424</v>
       </c>
       <c r="K2" t="n">
-        <v>450973.1454199427</v>
+        <v>450973.1454199423</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="O2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="P2" t="n">
         <v>451572.9734253561</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>451572.9734253563</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21446.84877552652</v>
+        <v>21446.84877552665</v>
       </c>
       <c r="E3" t="n">
         <v>1136860.943687868</v>
       </c>
       <c r="F3" t="n">
-        <v>2884.089834121647</v>
+        <v>2884.08983412145</v>
       </c>
       <c r="G3" t="n">
-        <v>4318.565476533223</v>
+        <v>4318.565476533268</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45969.5739584272</v>
+        <v>45969.57395842717</v>
       </c>
       <c r="J3" t="n">
-        <v>33535.78802670317</v>
+        <v>33535.78802670318</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>5843.397380215139</v>
       </c>
       <c r="M3" t="n">
-        <v>205475.0301890554</v>
+        <v>205475.0301890555</v>
       </c>
       <c r="N3" t="n">
-        <v>2465.366042878846</v>
+        <v>2465.366042878763</v>
       </c>
       <c r="O3" t="n">
-        <v>31736.7119146589</v>
+        <v>31736.71191465884</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>414436.6827141397</v>
+        <v>414436.6827141396</v>
       </c>
       <c r="E4" t="n">
-        <v>51175.8477259998</v>
+        <v>51175.84772599985</v>
       </c>
       <c r="F4" t="n">
-        <v>52290.99959428767</v>
+        <v>52290.99959428761</v>
       </c>
       <c r="G4" t="n">
         <v>57500.87738684941</v>
       </c>
       <c r="H4" t="n">
-        <v>57500.87738684942</v>
+        <v>57500.8773868494</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120105</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="J4" t="n">
+        <v>75574.80188343371</v>
+      </c>
+      <c r="K4" t="n">
         <v>75574.80188343374</v>
       </c>
-      <c r="K4" t="n">
-        <v>75574.8018834337</v>
-      </c>
       <c r="L4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="M4" t="n">
         <v>76652.56781120109</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120108</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120105</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="P4" t="n">
         <v>76652.56781120106</v>
@@ -26476,40 +26476,40 @@
         <v>34537.22321297009</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.67147047339</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="F5" t="n">
-        <v>78413.66710756949</v>
+        <v>78413.66710756946</v>
       </c>
       <c r="G5" t="n">
-        <v>78867.48895887782</v>
+        <v>78867.4889588778</v>
       </c>
       <c r="H5" t="n">
-        <v>78867.48895887782</v>
+        <v>78867.4889588778</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89635.76638926388</v>
+        <v>89635.76638926385</v>
       </c>
       <c r="K5" t="n">
         <v>89635.76638926388</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3173.382595160125</v>
+        <v>-3177.796173028237</v>
       </c>
       <c r="C6" t="n">
-        <v>-3173.382595160241</v>
+        <v>-3177.796173028354</v>
       </c>
       <c r="D6" t="n">
-        <v>-19212.73328829506</v>
+        <v>-19214.3921610724</v>
       </c>
       <c r="E6" t="n">
-        <v>-850353.8843056873</v>
+        <v>-850517.9224640814</v>
       </c>
       <c r="F6" t="n">
-        <v>283606.001816103</v>
+        <v>283449.7372021338</v>
       </c>
       <c r="G6" t="n">
-        <v>281515.3033905812</v>
+        <v>281381.8000350695</v>
       </c>
       <c r="H6" t="n">
-        <v>285833.8688671144</v>
+        <v>285700.3655116028</v>
       </c>
       <c r="I6" t="n">
         <v>239572.8899809218</v>
       </c>
       <c r="J6" t="n">
-        <v>252226.7891205417</v>
+        <v>252224.0626296079</v>
       </c>
       <c r="K6" t="n">
-        <v>285762.5771472451</v>
+        <v>285759.850656311</v>
       </c>
       <c r="L6" t="n">
-        <v>279699.0665591338</v>
+        <v>279699.0665591339</v>
       </c>
       <c r="M6" t="n">
-        <v>80067.43375029351</v>
+        <v>80067.43375029345</v>
       </c>
       <c r="N6" t="n">
-        <v>283077.0978964701</v>
+        <v>283077.0978964703</v>
       </c>
       <c r="O6" t="n">
-        <v>253805.75202469</v>
+        <v>253805.7520246903</v>
       </c>
       <c r="P6" t="n">
-        <v>285542.4639393491</v>
+        <v>285542.463939349</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="K2" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859259</v>
@@ -26722,10 +26722,10 @@
         <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.54860696669916</v>
+        <v>22.54860696669931</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>841.4671731176886</v>
+        <v>841.4671731176883</v>
       </c>
       <c r="G4" t="n">
-        <v>841.4671731176886</v>
+        <v>841.4671731176883</v>
       </c>
       <c r="H4" t="n">
-        <v>841.4671731176886</v>
+        <v>841.4671731176883</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1021.212506950326</v>
@@ -26817,7 +26817,7 @@
         <v>1021.212506950326</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.398206845666529</v>
+        <v>5.398206845666586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.67088989332364</v>
+        <v>39.67088989332365</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.67088989332363</v>
+        <v>39.67088989332369</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.54860696669916</v>
+        <v>22.54860696669931</v>
       </c>
       <c r="E3" t="n">
         <v>1067.228093626599</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="F4" t="n">
-        <v>10.0657177153962</v>
+        <v>10.06571771539564</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>172.8692880909263</v>
+        <v>172.8692880909261</v>
       </c>
       <c r="J4" t="n">
         <v>6.876045741711096</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605814</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0657177153962</v>
+        <v>10.06571771539586</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666529</v>
+        <v>5.398206845666586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.67088989332364</v>
+        <v>39.67088989332365</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0657177153962</v>
+        <v>10.06571771539564</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.8739489829624</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>206.9811954193158</v>
       </c>
       <c r="J8" t="n">
-        <v>4.255681995658215</v>
+        <v>4.255681995658161</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.2017710514286222</v>
       </c>
       <c r="R8" t="n">
-        <v>144.174971479353</v>
+        <v>137.2989257376416</v>
       </c>
       <c r="S8" t="n">
         <v>206.9544358927633</v>
@@ -27910,7 +27910,7 @@
         <v>251.3384010945407</v>
       </c>
       <c r="V8" t="n">
-        <v>321.8976084322642</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.3618929143421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.2950163859615</v>
@@ -27950,7 +27950,7 @@
         <v>111.7670288351694</v>
       </c>
       <c r="I9" t="n">
-        <v>87.72675959963594</v>
+        <v>87.72675959963593</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.14653150905264</v>
+        <v>90.27048576734117</v>
       </c>
       <c r="S9" t="n">
-        <v>170.782290438706</v>
+        <v>163.9062446969946</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9692365268745</v>
+        <v>193.912815437575</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381912403663</v>
+        <v>219.0621454986549</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,16 +28026,16 @@
         <v>167.9503179360598</v>
       </c>
       <c r="H10" t="n">
-        <v>154.9896097556719</v>
+        <v>161.8656554973833</v>
       </c>
       <c r="I10" t="n">
-        <v>147.3516293192216</v>
+        <v>154.227675060933</v>
       </c>
       <c r="J10" t="n">
-        <v>84.42799646376646</v>
+        <v>90.48441755306588</v>
       </c>
       <c r="K10" t="n">
-        <v>17.54537384171211</v>
+        <v>17.54537384171208</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.75720359972281</v>
+        <v>82.75720359972279</v>
       </c>
       <c r="R10" t="n">
-        <v>168.5890602246827</v>
+        <v>175.4651059663942</v>
       </c>
       <c r="S10" t="n">
-        <v>223.3079803393466</v>
+        <v>216.4319345976352</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7718542598496</v>
+        <v>220.8958085181381</v>
       </c>
       <c r="U10" t="n">
         <v>286.3168114607237</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292598</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292602</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859175</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="C26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="D26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="E26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="F26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="G26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="H26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="T26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="U26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="V26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="W26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="X26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="C28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="D28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="E28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="F28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="G28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="H28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="I28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="K28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="L28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="M28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="N28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="O28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="P28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="R28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="S28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="T28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="U28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="V28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="W28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="X28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899023</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="C29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="D29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="E29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="F29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="G29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="H29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="T29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="U29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="V29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="W29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="X29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="C31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="D31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="E31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="F31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="G31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="H31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="I31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="J31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="K31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="L31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="M31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="N31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="O31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="P31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="R31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="S31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="T31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="U31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="V31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="W31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="X31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.06909673899017</v>
+        <v>45.06909673899024</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -30414,7 +30414,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O40" t="n">
         <v>46.97513661859258</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09064766619778548</v>
+        <v>0.09064766619778612</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9283454114480709</v>
+        <v>0.9283454114480774</v>
       </c>
       <c r="I8" t="n">
-        <v>3.494694151090128</v>
+        <v>3.494694151090153</v>
       </c>
       <c r="J8" t="n">
-        <v>7.693607358954303</v>
+        <v>7.693607358954356</v>
       </c>
       <c r="K8" t="n">
-        <v>11.53072306910657</v>
+        <v>11.53072306910665</v>
       </c>
       <c r="L8" t="n">
-        <v>14.30488158350705</v>
+        <v>14.30488158350714</v>
       </c>
       <c r="M8" t="n">
-        <v>15.91693701725191</v>
+        <v>15.91693701725202</v>
       </c>
       <c r="N8" t="n">
-        <v>16.17448969883637</v>
+        <v>16.17448969883649</v>
       </c>
       <c r="O8" t="n">
-        <v>15.27311196808214</v>
+        <v>15.27311196808225</v>
       </c>
       <c r="P8" t="n">
-        <v>13.03524770882431</v>
+        <v>13.0352477088244</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.788928163116115</v>
+        <v>9.788928163116182</v>
       </c>
       <c r="R8" t="n">
-        <v>5.694146461796648</v>
+        <v>5.694146461796687</v>
       </c>
       <c r="S8" t="n">
-        <v>2.065633693482039</v>
+        <v>2.065633693482053</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3968101587808062</v>
+        <v>0.3968101587808089</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007251813295822838</v>
+        <v>0.007251813295822888</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04850077724912649</v>
+        <v>0.04850077724912683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4684154013270901</v>
+        <v>0.4684154013270934</v>
       </c>
       <c r="I9" t="n">
-        <v>1.669873251779136</v>
+        <v>1.669873251779147</v>
       </c>
       <c r="J9" t="n">
-        <v>4.582259836506289</v>
+        <v>4.582259836506321</v>
       </c>
       <c r="K9" t="n">
-        <v>7.831811912197764</v>
+        <v>7.831811912197818</v>
       </c>
       <c r="L9" t="n">
-        <v>10.53083762157021</v>
+        <v>10.53083762157028</v>
       </c>
       <c r="M9" t="n">
-        <v>12.28899079685104</v>
+        <v>12.28899079685112</v>
       </c>
       <c r="N9" t="n">
-        <v>12.61424381621032</v>
+        <v>12.6142438162104</v>
       </c>
       <c r="O9" t="n">
-        <v>11.53956869926914</v>
+        <v>11.53956869926922</v>
       </c>
       <c r="P9" t="n">
-        <v>9.26152122751083</v>
+        <v>9.261521227510894</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.191081671309551</v>
+        <v>6.191081671309593</v>
       </c>
       <c r="R9" t="n">
-        <v>3.011302643590504</v>
+        <v>3.011302643590525</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9008806651318007</v>
+        <v>0.9008806651318069</v>
       </c>
       <c r="T9" t="n">
-        <v>0.195492167947137</v>
+        <v>0.1954921679471383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003190840608495165</v>
+        <v>0.003190840608495187</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04066142239896569</v>
+        <v>0.04066142239896597</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3615170100562589</v>
+        <v>0.3615170100562614</v>
       </c>
       <c r="I10" t="n">
-        <v>1.222799866325259</v>
+        <v>1.222799866325268</v>
       </c>
       <c r="J10" t="n">
-        <v>2.874762563606874</v>
+        <v>2.874762563606894</v>
       </c>
       <c r="K10" t="n">
-        <v>4.72411798417074</v>
+        <v>4.724117984170773</v>
       </c>
       <c r="L10" t="n">
-        <v>6.045244562842591</v>
+        <v>6.045244562842633</v>
       </c>
       <c r="M10" t="n">
-        <v>6.373862785685139</v>
+        <v>6.373862785685183</v>
       </c>
       <c r="N10" t="n">
-        <v>6.222306574925363</v>
+        <v>6.222306574925407</v>
       </c>
       <c r="O10" t="n">
-        <v>5.747307231446534</v>
+        <v>5.747307231446574</v>
       </c>
       <c r="P10" t="n">
-        <v>4.91781421450763</v>
+        <v>4.917814214507664</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.404839651971573</v>
+        <v>3.404839651971596</v>
       </c>
       <c r="R10" t="n">
-        <v>1.828285410775311</v>
+        <v>1.828285410775324</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7086176976256109</v>
+        <v>0.7086176976256158</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1737351684319443</v>
+        <v>0.1737351684319455</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002217895767216313</v>
+        <v>0.002217895767216328</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
@@ -32090,10 +32090,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32321,10 +32321,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,10 +33263,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33752,7 +33752,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K13" t="n">
         <v>247.6245893172455</v>
@@ -35574,7 +35574,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
         <v>386.433875940466</v>
@@ -35583,7 +35583,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
         <v>119.9711683108196</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>592.1580106092274</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
         <v>508.053000888219</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>290.650480000034</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35738,10 +35738,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599222</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>361.3343019431241</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
         <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
-        <v>386.4338759404661</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
         <v>343.9300599955657</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>547.9091760845337</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>99.46937373854072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165891</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36057,7 +36057,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>578.7772910265428</v>
+        <v>578.7772910265414</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
@@ -36200,7 +36200,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165794</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>212.5368213938614</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>749.0240763241627</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36534,7 +36534,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>968.6974804549978</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>788.6469548433488</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.64751335205641</v>
+        <v>90.64751335205642</v>
       </c>
       <c r="K28" t="n">
         <v>251.1167562833097</v>
@@ -36771,7 +36771,7 @@
         <v>280.0261678841006</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.4633352768838</v>
+        <v>123.4633352768839</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>817.3033547444378</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>318.0428090620849</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,10 +36911,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.64751335205636</v>
+        <v>90.64751335205644</v>
       </c>
       <c r="K31" t="n">
-        <v>251.1167562833097</v>
+        <v>251.1167562833098</v>
       </c>
       <c r="L31" t="n">
         <v>364.8264689091883</v>
@@ -36999,16 +36999,16 @@
         <v>392.702476132474</v>
       </c>
       <c r="N31" t="n">
-        <v>389.9260429065302</v>
+        <v>389.9260429065303</v>
       </c>
       <c r="O31" t="n">
-        <v>347.4222269616299</v>
+        <v>347.42222696163</v>
       </c>
       <c r="P31" t="n">
         <v>280.0261678841006</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.4633352768838</v>
+        <v>123.4633352768839</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>455.0964568307188</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>604.4382338939685</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>629.8686683355097</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>81.36301896737346</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>676.8754799667425</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>418.1651022448381</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37707,10 +37707,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>526.8446923444517</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412311</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>570.6446730712207</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>733.4222231159797</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
